--- a/Week 73/vishnu.xlsx
+++ b/Week 73/vishnu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Milestone Toolkit\Users\Vishnu\Weekly Report\May\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Support Analysis\Week 73\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>CUSTOMER</t>
   </si>
@@ -59,15 +59,6 @@
     <t>Aboobacker Assosciates</t>
   </si>
   <si>
-    <t>Split Database</t>
-  </si>
-  <si>
-    <t>HOLD</t>
-  </si>
-  <si>
-    <t>15/11/2018</t>
-  </si>
-  <si>
     <t>GREEN HEALTH HERBALS &amp; REMEDIES PVT LTD</t>
   </si>
   <si>
@@ -81,6 +72,12 @@
   </si>
   <si>
     <t>Modify Print object</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add Narration field in sales window</t>
+  </si>
+  <si>
+    <t>53 mins 4 secs</t>
   </si>
 </sst>
 </file>
@@ -131,6 +128,7 @@
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,6 +144,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3303,7 +3302,7 @@
   <dimension ref="A1:Z67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3317,8 +3316,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="8" t="s">
-        <v>13</v>
+      <c r="B1" s="8">
+        <v>43614</v>
       </c>
       <c r="E1" s="6"/>
     </row>
@@ -3342,13 +3341,13 @@
         <v>10</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="12">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -3357,7 +3356,7 @@
     </row>
     <row r="5" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B5" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" s="10"/>
     </row>
@@ -3377,10 +3376,10 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>3</v>
@@ -3418,10 +3417,10 @@
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>3</v>
@@ -3518,7 +3517,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B25" s="3">
         <v>3</v>
@@ -3535,7 +3534,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B26" s="3">
         <v>0.31</v>
